--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V4 Consolidating by Position/W1_ExpensesPerth.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V4 Consolidating by Position/W1_ExpensesPerth.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 1\W1-V4 Consolidating by Position\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3887CB62-EE18-4F4A-9A8C-DADF2E471848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="43" windowWidth="37397" windowHeight="15994"/>
+    <workbookView xWindow="11508" yWindow="-12" windowWidth="11544" windowHeight="6192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HR PERTH" sheetId="8" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="WeekEnding" localSheetId="0">'HR PERTH'!$C$3</definedName>
     <definedName name="WeekEnding">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -482,15 +483,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Do Not Type" xfId="4"/>
+    <cellStyle name="Do Not Type" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="9" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input Custom" xfId="2"/>
-    <cellStyle name="Instructions" xfId="5"/>
+    <cellStyle name="Input Custom" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Instructions" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Table Totals" xfId="3"/>
+    <cellStyle name="Table Totals" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
@@ -541,7 +542,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Expense Report" defaultPivotStyle="PivotStyleLight15">
-    <tableStyle name="Expense Report" pivot="0" count="3">
+    <tableStyle name="Expense Report" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="totalRow" dxfId="1"/>
       <tableStyleElement type="lastColumn" dxfId="0"/>
@@ -867,27 +868,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="17.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="17.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
@@ -900,8 +901,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
@@ -909,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
@@ -917,7 +918,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
@@ -937,7 +938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -956,7 +957,7 @@
         <v>2023.9399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -975,7 +976,7 @@
         <v>1351.8322000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
@@ -994,7 +995,7 @@
         <v>142.57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>355.08929999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>83.095500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>28.622</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>1961.2090000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1103,7 +1104,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1114,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>1148.6951999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>110.3687</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>354.3716</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>788.74479999999994</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>2402.1803</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1222,7 +1223,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
@@ -1232,7 +1233,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>1941.8240000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>554.90010000000007</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>685.82479999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>19</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>572.92399999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>18</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>3755.4729000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1341,7 +1342,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>8118.8621999999996</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -1374,7 +1375,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
